--- a/Code/Results/Cases/Case_1_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.836302764900821</v>
+        <v>6.459772186609131</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.18957321525525</v>
+        <v>10.21205681273083</v>
       </c>
       <c r="E2">
-        <v>14.68154386199381</v>
+        <v>8.665687138136612</v>
       </c>
       <c r="F2">
-        <v>92.83311695049073</v>
+        <v>76.12425560518976</v>
       </c>
       <c r="G2">
-        <v>1.843719983765346</v>
+        <v>3.823389022674342</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.81252423975404</v>
+        <v>18.72193701677038</v>
       </c>
       <c r="J2">
-        <v>5.070084011514089</v>
+        <v>8.56099746325058</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>51.53379755938266</v>
+        <v>38.84783946225661</v>
       </c>
       <c r="N2">
-        <v>11.63728091186861</v>
+        <v>17.68517234655202</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.383745557394835</v>
+        <v>6.300252423865869</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.30918478879168</v>
+        <v>9.842422498270416</v>
       </c>
       <c r="E3">
-        <v>13.35036301346742</v>
+        <v>8.288230836267784</v>
       </c>
       <c r="F3">
-        <v>84.0245974116972</v>
+        <v>75.26105913222864</v>
       </c>
       <c r="G3">
-        <v>1.908681848607396</v>
+        <v>3.835964348786071</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.40782594405404</v>
+        <v>18.85249620671442</v>
       </c>
       <c r="J3">
-        <v>5.095318893077637</v>
+        <v>8.57712780139958</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>46.6755009123753</v>
+        <v>38.14858128977712</v>
       </c>
       <c r="N3">
-        <v>11.95347121144404</v>
+        <v>17.7438870098695</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.088321884551068</v>
+        <v>6.200847697060209</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.21583553835885</v>
+        <v>9.614270175950566</v>
       </c>
       <c r="E4">
-        <v>12.57442803124008</v>
+        <v>8.047090501492411</v>
       </c>
       <c r="F4">
-        <v>79.0705377775662</v>
+        <v>74.76323092004469</v>
       </c>
       <c r="G4">
-        <v>1.944801281845436</v>
+        <v>3.844017905661135</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.7522412896093</v>
+        <v>18.93634076625256</v>
       </c>
       <c r="J4">
-        <v>5.113544777222388</v>
+        <v>8.587637973490757</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>43.80394396094668</v>
+        <v>37.72700855324533</v>
       </c>
       <c r="N4">
-        <v>12.13189176053041</v>
+        <v>17.78221176998855</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.963677565656082</v>
+        <v>6.160029389850452</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.77757871475767</v>
+        <v>9.52114507839479</v>
       </c>
       <c r="E5">
-        <v>12.26306319683205</v>
+        <v>7.946525759289502</v>
       </c>
       <c r="F5">
-        <v>77.19172223015788</v>
+        <v>74.56853731995481</v>
       </c>
       <c r="G5">
-        <v>1.958938215994128</v>
+        <v>3.847384255952396</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.88959523160864</v>
+        <v>18.97143980915805</v>
       </c>
       <c r="J5">
-        <v>5.121494844003048</v>
+        <v>8.592073617087271</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>42.64411725448518</v>
+        <v>37.55735586341757</v>
       </c>
       <c r="N5">
-        <v>12.20235390309115</v>
+        <v>17.79840483747738</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.942726933103017</v>
+        <v>6.153234530243961</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.70508136379079</v>
+        <v>9.505677172497924</v>
       </c>
       <c r="E6">
-        <v>12.21154040885355</v>
+        <v>7.929690242500087</v>
       </c>
       <c r="F6">
-        <v>76.88299100503887</v>
+        <v>74.53670441852758</v>
       </c>
       <c r="G6">
-        <v>1.961257971187494</v>
+        <v>3.847948363379031</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.9122691095216</v>
+        <v>18.97732443001371</v>
       </c>
       <c r="J6">
-        <v>5.122843418114212</v>
+        <v>8.592819380542863</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>42.45179446926318</v>
+        <v>37.52931990626644</v>
       </c>
       <c r="N6">
-        <v>12.21395307449911</v>
+        <v>17.80112854456142</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.086657957851377</v>
+        <v>6.200298385375991</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.20990337613842</v>
+        <v>9.613014665024302</v>
       </c>
       <c r="E7">
-        <v>12.57021463982547</v>
+        <v>8.045743467217035</v>
       </c>
       <c r="F7">
-        <v>79.0449675750484</v>
+        <v>74.7605720161886</v>
       </c>
       <c r="G7">
-        <v>1.944993939592698</v>
+        <v>3.844062962264761</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.75410358527313</v>
+        <v>18.93681034365292</v>
       </c>
       <c r="J7">
-        <v>5.113650026297432</v>
+        <v>8.587697175650074</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>43.78827727369763</v>
+        <v>37.72471164192183</v>
       </c>
       <c r="N7">
-        <v>12.13284948756149</v>
+        <v>17.78242782066656</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.684023497860644</v>
+        <v>6.405105720082028</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.52199726552394</v>
+        <v>10.0849411664045</v>
       </c>
       <c r="E8">
-        <v>14.20944672556893</v>
+        <v>8.537520395928924</v>
       </c>
       <c r="F8">
-        <v>89.68354124097438</v>
+        <v>75.82000346533452</v>
       </c>
       <c r="G8">
-        <v>1.867193963344846</v>
+        <v>3.82765659160292</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.02401230965411</v>
+        <v>18.76619364762735</v>
       </c>
       <c r="J8">
-        <v>5.078079490305822</v>
+        <v>8.56643356737453</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>49.82130342265602</v>
+        <v>38.60523427583543</v>
       </c>
       <c r="N8">
-        <v>11.75094601889181</v>
+        <v>17.70494747443444</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.695629326502379</v>
+        <v>6.792818132609564</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>23.69057778814258</v>
+        <v>10.99494016168574</v>
       </c>
       <c r="E9">
-        <v>18.55803372301513</v>
+        <v>9.425311383280073</v>
       </c>
       <c r="F9">
-        <v>119.2580368273801</v>
+        <v>78.14826900908032</v>
       </c>
       <c r="G9">
-        <v>1.633335169645968</v>
+        <v>3.798077619559462</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.102983979217779</v>
+        <v>18.46053347154428</v>
       </c>
       <c r="J9">
-        <v>5.058569745196368</v>
+        <v>8.529533043521287</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65.037340416858</v>
+        <v>40.38537790089354</v>
       </c>
       <c r="N9">
-        <v>10.63113765388216</v>
+        <v>17.57088266881241</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.695629326502379</v>
+        <v>7.066292173849639</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>23.69057778814258</v>
+        <v>11.64702635081214</v>
       </c>
       <c r="E10">
-        <v>18.55803372301513</v>
+        <v>10.02865798584999</v>
       </c>
       <c r="F10">
-        <v>119.2580368273801</v>
+        <v>80.00448218189523</v>
       </c>
       <c r="G10">
-        <v>1.633335169645968</v>
+        <v>3.777866436114298</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.102983979217779</v>
+        <v>18.25318623623212</v>
       </c>
       <c r="J10">
-        <v>5.058569745196368</v>
+        <v>8.505330956493545</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>65.037340416858</v>
+        <v>41.71491854631369</v>
       </c>
       <c r="N10">
-        <v>10.63113765388216</v>
+        <v>17.48304770267812</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.695629326502379</v>
+        <v>7.187689230625222</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>23.69057778814258</v>
+        <v>11.93886587347078</v>
       </c>
       <c r="E11">
-        <v>18.55803372301513</v>
+        <v>10.29220518057061</v>
       </c>
       <c r="F11">
-        <v>119.2580368273801</v>
+        <v>80.87875207246536</v>
       </c>
       <c r="G11">
-        <v>1.633335169645968</v>
+        <v>3.768988296729478</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.102983979217779</v>
+        <v>18.16250729425039</v>
       </c>
       <c r="J11">
-        <v>5.058569745196368</v>
+        <v>8.494949204944694</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>65.037340416858</v>
+        <v>42.32224158556199</v>
       </c>
       <c r="N11">
-        <v>10.63113765388216</v>
+        <v>17.44535293051805</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.695629326502379</v>
+        <v>7.233186189773997</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.69057778814258</v>
+        <v>12.04860271410743</v>
       </c>
       <c r="E12">
-        <v>18.55803372301513</v>
+        <v>10.39041620188743</v>
       </c>
       <c r="F12">
-        <v>119.2580368273801</v>
+        <v>81.21394606398596</v>
       </c>
       <c r="G12">
-        <v>1.633335169645968</v>
+        <v>3.765670672154672</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.102983979217779</v>
+        <v>18.1286861874119</v>
       </c>
       <c r="J12">
-        <v>5.058569745196368</v>
+        <v>8.49110797765165</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>65.037340416858</v>
+        <v>42.55240316113682</v>
       </c>
       <c r="N12">
-        <v>10.63113765388216</v>
+        <v>17.43139986076054</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.695629326502379</v>
+        <v>7.223409278416884</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>23.69057778814258</v>
+        <v>12.02500470019029</v>
       </c>
       <c r="E13">
-        <v>18.55803372301513</v>
+        <v>10.36933558656539</v>
       </c>
       <c r="F13">
-        <v>119.2580368273801</v>
+        <v>81.14157521233146</v>
       </c>
       <c r="G13">
-        <v>1.633335169645968</v>
+        <v>3.766383228315733</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.102983979217779</v>
+        <v>18.13594728615396</v>
       </c>
       <c r="J13">
-        <v>5.058569745196368</v>
+        <v>8.491931249354492</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>65.037340416858</v>
+        <v>42.50282842554729</v>
       </c>
       <c r="N13">
-        <v>10.63113765388216</v>
+        <v>17.43439068875562</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.695629326502379</v>
+        <v>7.191442004112103</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>23.69057778814258</v>
+        <v>11.94791000192873</v>
       </c>
       <c r="E14">
-        <v>18.55803372301513</v>
+        <v>10.30031698320866</v>
       </c>
       <c r="F14">
-        <v>119.2580368273801</v>
+        <v>80.90624695112037</v>
       </c>
       <c r="G14">
-        <v>1.633335169645968</v>
+        <v>3.768714471743202</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.102983979217779</v>
+        <v>18.15971449003323</v>
       </c>
       <c r="J14">
-        <v>5.058569745196368</v>
+        <v>8.494631379743351</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>65.037340416858</v>
+        <v>42.34117447137907</v>
       </c>
       <c r="N14">
-        <v>10.63113765388216</v>
+        <v>17.44419859128531</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.695629326502379</v>
+        <v>7.17179830958832</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>23.69057778814258</v>
+        <v>11.900583801349</v>
       </c>
       <c r="E15">
-        <v>18.55803372301513</v>
+        <v>10.25783376615848</v>
       </c>
       <c r="F15">
-        <v>119.2580368273801</v>
+        <v>80.76263398542763</v>
       </c>
       <c r="G15">
-        <v>1.633335169645968</v>
+        <v>3.770148165616478</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.102983979217779</v>
+        <v>18.17433971118345</v>
       </c>
       <c r="J15">
-        <v>5.058569745196368</v>
+        <v>8.49629701846999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>65.037340416858</v>
+        <v>42.24217524009579</v>
       </c>
       <c r="N15">
-        <v>10.63113765388216</v>
+        <v>17.45024791028263</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.695629326502379</v>
+        <v>7.058294485798442</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>23.69057778814258</v>
+        <v>11.62784972346312</v>
       </c>
       <c r="E16">
-        <v>18.55803372301513</v>
+        <v>10.01121313100099</v>
       </c>
       <c r="F16">
-        <v>119.2580368273801</v>
+        <v>79.94793336015285</v>
       </c>
       <c r="G16">
-        <v>1.633335169645968</v>
+        <v>3.778452908708527</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.102983979217779</v>
+        <v>18.25918505691083</v>
       </c>
       <c r="J16">
-        <v>5.058569745196368</v>
+        <v>8.506022048110184</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>65.037340416858</v>
+        <v>41.67526350384242</v>
       </c>
       <c r="N16">
-        <v>10.63113765388216</v>
+        <v>17.48555630789995</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.695629326502379</v>
+        <v>6.987862957555817</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>23.69057778814258</v>
+        <v>11.45924179553406</v>
       </c>
       <c r="E17">
-        <v>18.55803372301513</v>
+        <v>9.857107811236926</v>
       </c>
       <c r="F17">
-        <v>119.2580368273801</v>
+        <v>79.45567304102698</v>
       </c>
       <c r="G17">
-        <v>1.633335169645968</v>
+        <v>3.783627764747643</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.102983979217779</v>
+        <v>18.31216340453538</v>
       </c>
       <c r="J17">
-        <v>5.058569745196368</v>
+        <v>8.512148730758708</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>65.037340416858</v>
+        <v>41.32799359526228</v>
       </c>
       <c r="N17">
-        <v>10.63113765388216</v>
+        <v>17.5077932666172</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.695629326502379</v>
+        <v>6.947071733692766</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>23.69057778814258</v>
+        <v>11.36181574512659</v>
       </c>
       <c r="E18">
-        <v>18.55803372301513</v>
+        <v>9.767443537778174</v>
       </c>
       <c r="F18">
-        <v>119.2580368273801</v>
+        <v>79.17535983917239</v>
       </c>
       <c r="G18">
-        <v>1.633335169645968</v>
+        <v>3.786634020040647</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.102983979217779</v>
+        <v>18.34297860345963</v>
       </c>
       <c r="J18">
-        <v>5.058569745196368</v>
+        <v>8.515731747111188</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>65.037340416858</v>
+        <v>41.1284994129725</v>
       </c>
       <c r="N18">
-        <v>10.63113765388216</v>
+        <v>17.5207965204593</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.695629326502379</v>
+        <v>6.933213592571158</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>23.69057778814258</v>
+        <v>11.3287549898254</v>
       </c>
       <c r="E19">
-        <v>18.55803372301513</v>
+        <v>9.736909036996549</v>
       </c>
       <c r="F19">
-        <v>119.2580368273801</v>
+        <v>79.08094031805068</v>
       </c>
       <c r="G19">
-        <v>1.633335169645968</v>
+        <v>3.787657040360081</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.102983979217779</v>
+        <v>18.35347129958487</v>
       </c>
       <c r="J19">
-        <v>5.058569745196368</v>
+        <v>8.516955052692822</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>65.037340416858</v>
+        <v>41.06100201969339</v>
       </c>
       <c r="N19">
-        <v>10.63113765388216</v>
+        <v>17.52523593021055</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.695629326502379</v>
+        <v>6.9953898911259</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>23.69057778814258</v>
+        <v>11.47723735067529</v>
       </c>
       <c r="E20">
-        <v>18.55803372301513</v>
+        <v>9.873619026450854</v>
       </c>
       <c r="F20">
-        <v>119.2580368273801</v>
+        <v>79.50778413929963</v>
       </c>
       <c r="G20">
-        <v>1.633335169645968</v>
+        <v>3.783073814669226</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.102983979217779</v>
+        <v>18.30648827294965</v>
       </c>
       <c r="J20">
-        <v>5.058569745196368</v>
+        <v>8.511490418521154</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>65.037340416858</v>
+        <v>41.36493690794151</v>
       </c>
       <c r="N20">
-        <v>10.63113765388216</v>
+        <v>17.50540407439686</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.695629326502379</v>
+        <v>7.200844726471033</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>23.69057778814258</v>
+        <v>11.97057628403428</v>
       </c>
       <c r="E21">
-        <v>18.55803372301513</v>
+        <v>10.32063265225087</v>
       </c>
       <c r="F21">
-        <v>119.2580368273801</v>
+        <v>80.97525792172183</v>
       </c>
       <c r="G21">
-        <v>1.633335169645968</v>
+        <v>3.768028534876174</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.102983979217779</v>
+        <v>18.1527195106548</v>
       </c>
       <c r="J21">
-        <v>5.058569745196368</v>
+        <v>8.493835841581145</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>65.037340416858</v>
+        <v>42.38865261054476</v>
       </c>
       <c r="N21">
-        <v>10.63113765388216</v>
+        <v>17.44130909077122</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.695629326502379</v>
+        <v>7.332345037561152</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>23.69057778814258</v>
+        <v>12.28844460397234</v>
       </c>
       <c r="E22">
-        <v>18.55803372301513</v>
+        <v>10.60351787702461</v>
       </c>
       <c r="F22">
-        <v>119.2580368273801</v>
+        <v>81.95831180426943</v>
       </c>
       <c r="G22">
-        <v>1.633335169645968</v>
+        <v>3.758453442913724</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.102983979217779</v>
+        <v>18.05523304693448</v>
       </c>
       <c r="J22">
-        <v>5.058569745196368</v>
+        <v>8.482822752558864</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>65.037340416858</v>
+        <v>43.05869195877683</v>
       </c>
       <c r="N22">
-        <v>10.63113765388216</v>
+        <v>17.40128906955747</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.695629326502379</v>
+        <v>7.262427511110167</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>23.69057778814258</v>
+        <v>12.11923466727079</v>
       </c>
       <c r="E23">
-        <v>18.55803372301513</v>
+        <v>10.45338899465813</v>
       </c>
       <c r="F23">
-        <v>119.2580368273801</v>
+        <v>81.43150018224674</v>
       </c>
       <c r="G23">
-        <v>1.633335169645968</v>
+        <v>3.763540632430908</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.102983979217779</v>
+        <v>18.10699033197873</v>
       </c>
       <c r="J23">
-        <v>5.058569745196368</v>
+        <v>8.488652644048294</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>65.037340416858</v>
+        <v>42.70104616541318</v>
       </c>
       <c r="N23">
-        <v>10.63113765388216</v>
+        <v>17.42247881523352</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.695629326502379</v>
+        <v>6.991987893253575</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>23.69057778814258</v>
+        <v>11.46910308317748</v>
       </c>
       <c r="E24">
-        <v>18.55803372301513</v>
+        <v>9.866157628271324</v>
       </c>
       <c r="F24">
-        <v>119.2580368273801</v>
+        <v>79.4842163084158</v>
       </c>
       <c r="G24">
-        <v>1.633335169645968</v>
+        <v>3.783324158354523</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.102983979217779</v>
+        <v>18.30905288668452</v>
       </c>
       <c r="J24">
-        <v>5.058569745196368</v>
+        <v>8.511787852388334</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>65.037340416858</v>
+        <v>41.34823433693503</v>
       </c>
       <c r="N24">
-        <v>10.63113765388216</v>
+        <v>17.50648354597071</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.695629326502379</v>
+        <v>6.689733737416992</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>23.69057778814258</v>
+        <v>10.75119554626008</v>
       </c>
       <c r="E25">
-        <v>18.55803372301513</v>
+        <v>9.193600768993196</v>
       </c>
       <c r="F25">
-        <v>119.2580368273801</v>
+        <v>77.49225786692405</v>
       </c>
       <c r="G25">
-        <v>1.633335169645968</v>
+        <v>3.805807995232185</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.102983979217779</v>
+        <v>18.54016839381283</v>
       </c>
       <c r="J25">
-        <v>5.058569745196368</v>
+        <v>8.539003699213083</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>65.037340416858</v>
+        <v>39.89921967282727</v>
       </c>
       <c r="N25">
-        <v>10.63113765388216</v>
+        <v>17.60526114694385</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_116/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_116/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.459772186609131</v>
+        <v>7.836302764900814</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.21205681273083</v>
+        <v>18.18957321525541</v>
       </c>
       <c r="E2">
-        <v>8.665687138136612</v>
+        <v>14.68154386199394</v>
       </c>
       <c r="F2">
-        <v>76.12425560518976</v>
+        <v>92.83311695049147</v>
       </c>
       <c r="G2">
-        <v>3.823389022674342</v>
+        <v>1.843719983765373</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.72193701677038</v>
+        <v>10.81252423975406</v>
       </c>
       <c r="J2">
-        <v>8.56099746325058</v>
+        <v>5.070084011514156</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.84783946225661</v>
+        <v>51.53379755938307</v>
       </c>
       <c r="N2">
-        <v>17.68517234655202</v>
+        <v>11.6372809118686</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.300252423865869</v>
+        <v>7.383745557394801</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.842422498270416</v>
+        <v>16.30918478879161</v>
       </c>
       <c r="E3">
-        <v>8.288230836267784</v>
+        <v>13.35036301346729</v>
       </c>
       <c r="F3">
-        <v>75.26105913222864</v>
+        <v>84.02459741169679</v>
       </c>
       <c r="G3">
-        <v>3.835964348786071</v>
+        <v>1.908681848607549</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.85249620671442</v>
+        <v>11.40782594405414</v>
       </c>
       <c r="J3">
-        <v>8.57712780139958</v>
+        <v>5.095318893077635</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>38.14858128977712</v>
+        <v>46.67550091237507</v>
       </c>
       <c r="N3">
-        <v>17.7438870098695</v>
+        <v>11.95347121144407</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.200847697060209</v>
+        <v>7.0883218845511</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.614270175950566</v>
+        <v>15.21583553835884</v>
       </c>
       <c r="E4">
-        <v>8.047090501492411</v>
+        <v>12.57442803124008</v>
       </c>
       <c r="F4">
-        <v>74.76323092004469</v>
+        <v>79.07053777756606</v>
       </c>
       <c r="G4">
-        <v>3.844017905661135</v>
+        <v>1.944801281845578</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.93634076625256</v>
+        <v>11.75224128960923</v>
       </c>
       <c r="J4">
-        <v>8.587637973490757</v>
+        <v>5.11354477722242</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>37.72700855324533</v>
+        <v>43.80394396094661</v>
       </c>
       <c r="N4">
-        <v>17.78221176998855</v>
+        <v>12.13189176053037</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.160029389850452</v>
+        <v>6.963677565656096</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.52114507839479</v>
+        <v>14.77757871475758</v>
       </c>
       <c r="E5">
-        <v>7.946525759289502</v>
+        <v>12.26306319683193</v>
       </c>
       <c r="F5">
-        <v>74.56853731995481</v>
+        <v>77.19172223015796</v>
       </c>
       <c r="G5">
-        <v>3.847384255952396</v>
+        <v>1.95893821599399</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.97143980915805</v>
+        <v>11.88959523160864</v>
       </c>
       <c r="J5">
-        <v>8.592073617087271</v>
+        <v>5.12149484400298</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>37.55735586341757</v>
+        <v>42.6441172544852</v>
       </c>
       <c r="N5">
-        <v>17.79840483747738</v>
+        <v>12.20235390309115</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.153234530243961</v>
+        <v>6.942726933103017</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.505677172497924</v>
+        <v>14.70508136379074</v>
       </c>
       <c r="E6">
-        <v>7.929690242500087</v>
+        <v>12.2115404088535</v>
       </c>
       <c r="F6">
-        <v>74.53670441852758</v>
+        <v>76.88299100503879</v>
       </c>
       <c r="G6">
-        <v>3.847948363379031</v>
+        <v>1.961257971187364</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.97732443001371</v>
+        <v>11.91226910952153</v>
       </c>
       <c r="J6">
-        <v>8.592819380542863</v>
+        <v>5.12284341811421</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>37.52931990626644</v>
+        <v>42.45179446926313</v>
       </c>
       <c r="N6">
-        <v>17.80112854456142</v>
+        <v>12.21395307449909</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.200298385375991</v>
+        <v>7.086657957851317</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.613014665024302</v>
+        <v>15.2099033761385</v>
       </c>
       <c r="E7">
-        <v>8.045743467217035</v>
+        <v>12.57021463982566</v>
       </c>
       <c r="F7">
-        <v>74.7605720161886</v>
+        <v>79.04496757504856</v>
       </c>
       <c r="G7">
-        <v>3.844062962264761</v>
+        <v>1.944993939592579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.93681034365292</v>
+        <v>11.7541035852732</v>
       </c>
       <c r="J7">
-        <v>8.587697175650074</v>
+        <v>5.113650026297464</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>37.72471164192183</v>
+        <v>43.78827727369779</v>
       </c>
       <c r="N7">
-        <v>17.78242782066656</v>
+        <v>12.1328494875615</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.405105720082028</v>
+        <v>7.684023497860706</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.0849411664045</v>
+        <v>17.52199726552405</v>
       </c>
       <c r="E8">
-        <v>8.537520395928924</v>
+        <v>14.20944672556909</v>
       </c>
       <c r="F8">
-        <v>75.82000346533452</v>
+        <v>89.68354124097472</v>
       </c>
       <c r="G8">
-        <v>3.82765659160292</v>
+        <v>1.867193963344968</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.76619364762735</v>
+        <v>11.02401230965401</v>
       </c>
       <c r="J8">
-        <v>8.56643356737453</v>
+        <v>5.078079490305853</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>38.60523427583543</v>
+        <v>49.82130342265624</v>
       </c>
       <c r="N8">
-        <v>17.70494747443444</v>
+        <v>11.75094601889178</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.792818132609564</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.99494016168574</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E9">
-        <v>9.425311383280073</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F9">
-        <v>78.14826900908032</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G9">
-        <v>3.798077619559462</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.46053347154428</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J9">
-        <v>8.529533043521287</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>40.38537790089354</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N9">
-        <v>17.57088266881241</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.066292173849639</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.64702635081214</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E10">
-        <v>10.02865798584999</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F10">
-        <v>80.00448218189523</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G10">
-        <v>3.777866436114298</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.25318623623212</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J10">
-        <v>8.505330956493545</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>41.71491854631369</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N10">
-        <v>17.48304770267812</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.187689230625222</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.93886587347078</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E11">
-        <v>10.29220518057061</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F11">
-        <v>80.87875207246536</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G11">
-        <v>3.768988296729478</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.16250729425039</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J11">
-        <v>8.494949204944694</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42.32224158556199</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N11">
-        <v>17.44535293051805</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.233186189773997</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.04860271410743</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E12">
-        <v>10.39041620188743</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F12">
-        <v>81.21394606398596</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G12">
-        <v>3.765670672154672</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.1286861874119</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J12">
-        <v>8.49110797765165</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>42.55240316113682</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N12">
-        <v>17.43139986076054</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.223409278416884</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.02500470019029</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E13">
-        <v>10.36933558656539</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F13">
-        <v>81.14157521233146</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G13">
-        <v>3.766383228315733</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.13594728615396</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J13">
-        <v>8.491931249354492</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>42.50282842554729</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N13">
-        <v>17.43439068875562</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.191442004112103</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.94791000192873</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E14">
-        <v>10.30031698320866</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F14">
-        <v>80.90624695112037</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G14">
-        <v>3.768714471743202</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.15971449003323</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J14">
-        <v>8.494631379743351</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>42.34117447137907</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N14">
-        <v>17.44419859128531</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.17179830958832</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.900583801349</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E15">
-        <v>10.25783376615848</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F15">
-        <v>80.76263398542763</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G15">
-        <v>3.770148165616478</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.17433971118345</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J15">
-        <v>8.49629701846999</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.24217524009579</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N15">
-        <v>17.45024791028263</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.058294485798442</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.62784972346312</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E16">
-        <v>10.01121313100099</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F16">
-        <v>79.94793336015285</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G16">
-        <v>3.778452908708527</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.25918505691083</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J16">
-        <v>8.506022048110184</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>41.67526350384242</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N16">
-        <v>17.48555630789995</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.987862957555817</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.45924179553406</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E17">
-        <v>9.857107811236926</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F17">
-        <v>79.45567304102698</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G17">
-        <v>3.783627764747643</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.31216340453538</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J17">
-        <v>8.512148730758708</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>41.32799359526228</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N17">
-        <v>17.5077932666172</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.947071733692766</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.36181574512659</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E18">
-        <v>9.767443537778174</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F18">
-        <v>79.17535983917239</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G18">
-        <v>3.786634020040647</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.34297860345963</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J18">
-        <v>8.515731747111188</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>41.1284994129725</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N18">
-        <v>17.5207965204593</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.933213592571158</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.3287549898254</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E19">
-        <v>9.736909036996549</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F19">
-        <v>79.08094031805068</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G19">
-        <v>3.787657040360081</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.35347129958487</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J19">
-        <v>8.516955052692822</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>41.06100201969339</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N19">
-        <v>17.52523593021055</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.9953898911259</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.47723735067529</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E20">
-        <v>9.873619026450854</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F20">
-        <v>79.50778413929963</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G20">
-        <v>3.783073814669226</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.30648827294965</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J20">
-        <v>8.511490418521154</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>41.36493690794151</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N20">
-        <v>17.50540407439686</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.200844726471033</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.97057628403428</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E21">
-        <v>10.32063265225087</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F21">
-        <v>80.97525792172183</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G21">
-        <v>3.768028534876174</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.1527195106548</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J21">
-        <v>8.493835841581145</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>42.38865261054476</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N21">
-        <v>17.44130909077122</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.332345037561152</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.28844460397234</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E22">
-        <v>10.60351787702461</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F22">
-        <v>81.95831180426943</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G22">
-        <v>3.758453442913724</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.05523304693448</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J22">
-        <v>8.482822752558864</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.05869195877683</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N22">
-        <v>17.40128906955747</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.262427511110167</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.11923466727079</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E23">
-        <v>10.45338899465813</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F23">
-        <v>81.43150018224674</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G23">
-        <v>3.763540632430908</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.10699033197873</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J23">
-        <v>8.488652644048294</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.70104616541318</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N23">
-        <v>17.42247881523352</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.991987893253575</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.46910308317748</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E24">
-        <v>9.866157628271324</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F24">
-        <v>79.4842163084158</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G24">
-        <v>3.783324158354523</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.30905288668452</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J24">
-        <v>8.511787852388334</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>41.34823433693503</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N24">
-        <v>17.50648354597071</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.689733737416992</v>
+        <v>8.695629326502347</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.75119554626008</v>
+        <v>23.69057778814246</v>
       </c>
       <c r="E25">
-        <v>9.193600768993196</v>
+        <v>18.55803372301507</v>
       </c>
       <c r="F25">
-        <v>77.49225786692405</v>
+        <v>119.2580368273796</v>
       </c>
       <c r="G25">
-        <v>3.805807995232185</v>
+        <v>1.633335169646132</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.54016839381283</v>
+        <v>9.102983979217909</v>
       </c>
       <c r="J25">
-        <v>8.539003699213083</v>
+        <v>5.05856974519637</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>39.89921967282727</v>
+        <v>65.03734041685776</v>
       </c>
       <c r="N25">
-        <v>17.60526114694385</v>
+        <v>10.63113765388222</v>
       </c>
       <c r="O25">
         <v>0</v>
